--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +559,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +606,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1085,10 +1109,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1132,28 +1156,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1178,28 +1202,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1403,10 +1427,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1450,28 +1474,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1496,28 +1520,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2156,10 +2180,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2203,28 +2227,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2249,28 +2273,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2416,10 +2440,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2463,28 +2487,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2509,28 +2533,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2792,10 +2816,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2839,28 +2863,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2885,28 +2909,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3313,10 +3337,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="J110" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="K110" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3360,28 +3384,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3406,28 +3430,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3805,10 +3829,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3852,28 +3876,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3898,28 +3922,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4210,10 +4234,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4257,28 +4281,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4303,28 +4327,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4499,10 +4523,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
